--- a/Mohamed/Data/sleep_merged.xlsx
+++ b/Mohamed/Data/sleep_merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\PYTHON TRAINING\projet3-group3\New analysis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dstisas-my.sharepoint.com/personal/mohamed_jouhari_edu_dsti_institute/Documents/DSTI/Cours/Session 1/Python Machine Learning/Projects/Project 3/New analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17C0D02F-FDEC-4D6E-9DFD-1C8E8963DA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{17C0D02F-FDEC-4D6E-9DFD-1C8E8963DA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{300BFFF6-5DF3-44C5-ABDB-3C35412A91BC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sleep_merged" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1483,12 +1483,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
